--- a/test-results.xlsx
+++ b/test-results.xlsx
@@ -397,124 +397,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>name</v>
+        <v>APP Name</v>
       </c>
       <c r="B1" t="str">
+        <v>Test URLS</v>
+      </c>
+      <c r="C1" t="str">
         <v>status</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>duration</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>Authentication flow Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_uioperfrf_1/0oa6gzocirj1qKD7y1d7/aln6gzujbuXliKiEc1d7</v>
+      </c>
+      <c r="B2" t="str">
         <v>Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_uioperfrf_1/0oa6gzocirj1qKD7y1d7/aln6gzujbuXliKiEc1d7</v>
       </c>
-      <c r="B2" t="str">
-        <v>failed</v>
-      </c>
-      <c r="C2">
+      <c r="C2" t="str">
+        <v>failed</v>
+      </c>
+      <c r="D2">
         <v>1253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>Authentication flow Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_sdioextpp1_1/0oa6ge8hos514f7PF1d7/aln6gekjvaRs1RXnR1d7</v>
+      </c>
+      <c r="B3" t="str">
         <v>Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_sdioextpp1_1/0oa6ge8hos514f7PF1d7/aln6gekjvaRs1RXnR1d7</v>
       </c>
-      <c r="B3" t="str">
-        <v>failed</v>
-      </c>
-      <c r="C3">
+      <c r="C3" t="str">
+        <v>failed</v>
+      </c>
+      <c r="D3">
         <v>555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v>Authentication flow Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_uiostgrf_1/0oa6gj2jlz4J3AlIE1d7/aln6gj88wtdBQHuBn1d7</v>
+      </c>
+      <c r="B4" t="str">
         <v>Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_uiostgrf_1/0oa6gj2jlz4J3AlIE1d7/aln6gj88wtdBQHuBn1d7</v>
       </c>
-      <c r="B4" t="str">
-        <v>failed</v>
-      </c>
-      <c r="C4">
+      <c r="C4" t="str">
+        <v>failed</v>
+      </c>
+      <c r="D4">
         <v>941</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
+        <v>Authentication flow Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_sdioextpp3_1/0oa6gj5iv0RV7oEyp1d7/aln6gj9fd8WVMSdBa1d7</v>
+      </c>
+      <c r="B5" t="str">
         <v>Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_sdioextpp3_1/0oa6gj5iv0RV7oEyp1d7/aln6gj9fd8WVMSdBa1d7</v>
       </c>
-      <c r="B5" t="str">
-        <v>failed</v>
-      </c>
-      <c r="C5">
+      <c r="C5" t="str">
+        <v>failed</v>
+      </c>
+      <c r="D5">
         <v>582</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>Authentication flow Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_sdioextpp4_1/0oa6gpqzu4lcnNeKc1d7/aln6gpsgb1OQOSYis1d7</v>
+      </c>
+      <c r="B6" t="str">
         <v>Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_sdioextpp4_1/0oa6gpqzu4lcnNeKc1d7/aln6gpsgb1OQOSYis1d7</v>
       </c>
-      <c r="B6" t="str">
-        <v>failed</v>
-      </c>
-      <c r="C6">
+      <c r="C6" t="str">
+        <v>failed</v>
+      </c>
+      <c r="D6">
         <v>616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
+        <v>Authentication flow Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_eservicespp_2/0oa6h15sjidDLXZ001d7/aln6h18rjmGKwGPuj1d7</v>
+      </c>
+      <c r="B7" t="str">
         <v>Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_eservicespp_2/0oa6h15sjidDLXZ001d7/aln6h18rjmGKwGPuj1d7</v>
       </c>
-      <c r="B7" t="str">
-        <v>failed</v>
-      </c>
-      <c r="C7">
+      <c r="C7" t="str">
+        <v>failed</v>
+      </c>
+      <c r="D7">
         <v>556</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>Authentication flow Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_uiouatrf_1/0oa6h0zy2p9Rkyh621d7/aln6h166wwvHkVgGF1d7</v>
+      </c>
+      <c r="B8" t="str">
         <v>Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_uiouatrf_1/0oa6h0zy2p9Rkyh621d7/aln6h166wwvHkVgGF1d7</v>
       </c>
-      <c r="B8" t="str">
-        <v>failed</v>
-      </c>
-      <c r="C8">
+      <c r="C8" t="str">
+        <v>failed</v>
+      </c>
+      <c r="D8">
         <v>575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
+        <v>Authentication flow Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_sdioextpp2_1/0oa6grr1wtBFQOAri1d7/aln6grrzu18k4qRTS1d7</v>
+      </c>
+      <c r="B9" t="str">
         <v>Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_sdioextpp2_1/0oa6grr1wtBFQOAri1d7/aln6grrzu18k4qRTS1d7</v>
       </c>
-      <c r="B9" t="str">
-        <v>failed</v>
-      </c>
-      <c r="C9">
+      <c r="C9" t="str">
+        <v>failed</v>
+      </c>
+      <c r="D9">
         <v>555</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
+        <v>Authentication flow Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_eservicest1_1/0oa6l8t34kRcwsiSE1d7/aln6l9di1qJKd3QF81d7</v>
+      </c>
+      <c r="B10" t="str">
         <v>Login test for https://t1myedd.edd.ca.gov/s/scplogin?language=en_US/home/caeddicamext_eservicest1_1/0oa6l8t34kRcwsiSE1d7/aln6l9di1qJKd3QF81d7</v>
       </c>
-      <c r="B10" t="str">
-        <v>failed</v>
-      </c>
-      <c r="C10">
+      <c r="C10" t="str">
+        <v>failed</v>
+      </c>
+      <c r="D10">
         <v>575</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D10"/>
   </ignoredErrors>
 </worksheet>
 </file>